--- a/user-data/population-0-14/population-0-14.xlsx
+++ b/user-data/population-0-14/population-0-14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>id</t>
   </si>
@@ -859,9 +859,6 @@
   </si>
   <si>
     <t>Source: NA</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1243,22 +1240,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
@@ -1274,11 +1271,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/population-0-14/population-0-14.xlsx
+++ b/user-data/population-0-14/population-0-14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>id</t>
   </si>
@@ -870,7 +870,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1273,6 +1276,11 @@
         <v>287</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/population-0-14/population-0-14.xlsx
+++ b/user-data/population-0-14/population-0-14.xlsx
@@ -54,7 +54,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -114,7 +114,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -141,70 +141,70 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>CU</t>
@@ -636,7 +636,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -648,7 +648,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -879,7 +879,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -3448,7 +3448,7 @@
         <v>2005</v>
       </c>
       <c r="D154" t="n">
-        <v>42.32</v>
+        <v>36.07</v>
       </c>
     </row>
     <row r="155">
@@ -3462,7 +3462,7 @@
         <v>2006</v>
       </c>
       <c r="D155" t="n">
-        <v>42.28</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="156">
@@ -3476,7 +3476,7 @@
         <v>2007</v>
       </c>
       <c r="D156" t="n">
-        <v>42.21</v>
+        <v>34.13</v>
       </c>
     </row>
     <row r="157">
@@ -3490,7 +3490,7 @@
         <v>2008</v>
       </c>
       <c r="D157" t="n">
-        <v>42.09</v>
+        <v>33.21</v>
       </c>
     </row>
     <row r="158">
@@ -3504,7 +3504,7 @@
         <v>2009</v>
       </c>
       <c r="D158" t="n">
-        <v>41.96</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="159">
@@ -3518,7 +3518,7 @@
         <v>2010</v>
       </c>
       <c r="D159" t="n">
-        <v>41.81</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="160">
@@ -3532,7 +3532,7 @@
         <v>2011</v>
       </c>
       <c r="D160" t="n">
-        <v>41.65</v>
+        <v>31.45</v>
       </c>
     </row>
     <row r="161">
@@ -3546,7 +3546,7 @@
         <v>2012</v>
       </c>
       <c r="D161" t="n">
-        <v>41.48</v>
+        <v>31.23</v>
       </c>
     </row>
     <row r="162">
@@ -3560,7 +3560,7 @@
         <v>2005</v>
       </c>
       <c r="D162" t="n">
-        <v>36.07</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="163">
@@ -3574,7 +3574,7 @@
         <v>2006</v>
       </c>
       <c r="D163" t="n">
-        <v>35.1</v>
+        <v>44.13</v>
       </c>
     </row>
     <row r="164">
@@ -3588,7 +3588,7 @@
         <v>2007</v>
       </c>
       <c r="D164" t="n">
-        <v>34.13</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="165">
@@ -3602,7 +3602,7 @@
         <v>2008</v>
       </c>
       <c r="D165" t="n">
-        <v>33.21</v>
+        <v>43.76</v>
       </c>
     </row>
     <row r="166">
@@ -3616,7 +3616,7 @@
         <v>2009</v>
       </c>
       <c r="D166" t="n">
-        <v>32.43</v>
+        <v>43.58</v>
       </c>
     </row>
     <row r="167">
@@ -3630,7 +3630,7 @@
         <v>2010</v>
       </c>
       <c r="D167" t="n">
-        <v>31.84</v>
+        <v>43.41</v>
       </c>
     </row>
     <row r="168">
@@ -3644,7 +3644,7 @@
         <v>2011</v>
       </c>
       <c r="D168" t="n">
-        <v>31.45</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="169">
@@ -3658,7 +3658,7 @@
         <v>2012</v>
       </c>
       <c r="D169" t="n">
-        <v>31.23</v>
+        <v>43.08</v>
       </c>
     </row>
     <row r="170">
@@ -3672,7 +3672,7 @@
         <v>2005</v>
       </c>
       <c r="D170" t="n">
-        <v>44.31</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="171">
@@ -3686,7 +3686,7 @@
         <v>2006</v>
       </c>
       <c r="D171" t="n">
-        <v>44.13</v>
+        <v>41.68</v>
       </c>
     </row>
     <row r="172">
@@ -3700,7 +3700,7 @@
         <v>2007</v>
       </c>
       <c r="D172" t="n">
-        <v>43.94</v>
+        <v>41.45</v>
       </c>
     </row>
     <row r="173">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="D173" t="n">
-        <v>43.76</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="174">
@@ -3728,7 +3728,7 @@
         <v>2009</v>
       </c>
       <c r="D174" t="n">
-        <v>43.58</v>
+        <v>40.93</v>
       </c>
     </row>
     <row r="175">
@@ -3742,7 +3742,7 @@
         <v>2010</v>
       </c>
       <c r="D175" t="n">
-        <v>43.41</v>
+        <v>40.65</v>
       </c>
     </row>
     <row r="176">
@@ -3756,7 +3756,7 @@
         <v>2011</v>
       </c>
       <c r="D176" t="n">
-        <v>43.24</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="177">
@@ -3770,7 +3770,7 @@
         <v>2012</v>
       </c>
       <c r="D177" t="n">
-        <v>43.08</v>
+        <v>40.07</v>
       </c>
     </row>
     <row r="178">
@@ -3784,7 +3784,7 @@
         <v>2005</v>
       </c>
       <c r="D178" t="n">
-        <v>41.86</v>
+        <v>49.24</v>
       </c>
     </row>
     <row r="179">
@@ -3798,7 +3798,7 @@
         <v>2006</v>
       </c>
       <c r="D179" t="n">
-        <v>41.68</v>
+        <v>49.21</v>
       </c>
     </row>
     <row r="180">
@@ -3812,7 +3812,7 @@
         <v>2007</v>
       </c>
       <c r="D180" t="n">
-        <v>41.45</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="181">
@@ -3826,7 +3826,7 @@
         <v>2008</v>
       </c>
       <c r="D181" t="n">
-        <v>41.2</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="182">
@@ -3840,7 +3840,7 @@
         <v>2009</v>
       </c>
       <c r="D182" t="n">
-        <v>40.93</v>
+        <v>48.97</v>
       </c>
     </row>
     <row r="183">
@@ -3854,7 +3854,7 @@
         <v>2010</v>
       </c>
       <c r="D183" t="n">
-        <v>40.65</v>
+        <v>48.84</v>
       </c>
     </row>
     <row r="184">
@@ -3868,7 +3868,7 @@
         <v>2011</v>
       </c>
       <c r="D184" t="n">
-        <v>40.36</v>
+        <v>48.69</v>
       </c>
     </row>
     <row r="185">
@@ -3882,7 +3882,7 @@
         <v>2012</v>
       </c>
       <c r="D185" t="n">
-        <v>40.07</v>
+        <v>48.52</v>
       </c>
     </row>
     <row r="186">
@@ -3896,7 +3896,7 @@
         <v>2005</v>
       </c>
       <c r="D186" t="n">
-        <v>49.24</v>
+        <v>24.89</v>
       </c>
     </row>
     <row r="187">
@@ -3910,7 +3910,7 @@
         <v>2006</v>
       </c>
       <c r="D187" t="n">
-        <v>49.21</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="188">
@@ -3924,7 +3924,7 @@
         <v>2007</v>
       </c>
       <c r="D188" t="n">
-        <v>49.16</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="189">
@@ -3938,7 +3938,7 @@
         <v>2008</v>
       </c>
       <c r="D189" t="n">
-        <v>49.07</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="190">
@@ -3952,7 +3952,7 @@
         <v>2009</v>
       </c>
       <c r="D190" t="n">
-        <v>48.97</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="191">
@@ -3966,7 +3966,7 @@
         <v>2010</v>
       </c>
       <c r="D191" t="n">
-        <v>48.84</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="192">
@@ -3980,7 +3980,7 @@
         <v>2011</v>
       </c>
       <c r="D192" t="n">
-        <v>48.69</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="193">
@@ -3994,7 +3994,7 @@
         <v>2012</v>
       </c>
       <c r="D193" t="n">
-        <v>48.52</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="194">
@@ -4008,7 +4008,7 @@
         <v>2005</v>
       </c>
       <c r="D194" t="n">
-        <v>24.89</v>
+        <v>20.51</v>
       </c>
     </row>
     <row r="195">
@@ -4022,7 +4022,7 @@
         <v>2006</v>
       </c>
       <c r="D195" t="n">
-        <v>24.29</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="196">
@@ -4036,7 +4036,7 @@
         <v>2007</v>
       </c>
       <c r="D196" t="n">
-        <v>23.7</v>
+        <v>19.17</v>
       </c>
     </row>
     <row r="197">
@@ -4050,7 +4050,7 @@
         <v>2008</v>
       </c>
       <c r="D197" t="n">
-        <v>23.13</v>
+        <v>18.71</v>
       </c>
     </row>
     <row r="198">
@@ -4064,7 +4064,7 @@
         <v>2009</v>
       </c>
       <c r="D198" t="n">
-        <v>22.61</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="199">
@@ -4078,7 +4078,7 @@
         <v>2010</v>
       </c>
       <c r="D199" t="n">
-        <v>22.14</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="200">
@@ -4092,7 +4092,7 @@
         <v>2011</v>
       </c>
       <c r="D200" t="n">
-        <v>21.73</v>
+        <v>18.01</v>
       </c>
     </row>
     <row r="201">
@@ -4106,7 +4106,7 @@
         <v>2012</v>
       </c>
       <c r="D201" t="n">
-        <v>21.38</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="202">
@@ -4120,7 +4120,7 @@
         <v>2005</v>
       </c>
       <c r="D202" t="n">
-        <v>20.51</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="203">
@@ -4134,7 +4134,7 @@
         <v>2006</v>
       </c>
       <c r="D203" t="n">
-        <v>19.76</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="204">
@@ -4148,7 +4148,7 @@
         <v>2007</v>
       </c>
       <c r="D204" t="n">
-        <v>19.17</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="205">
@@ -4162,7 +4162,7 @@
         <v>2008</v>
       </c>
       <c r="D205" t="n">
-        <v>18.71</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="206">
@@ -4176,7 +4176,7 @@
         <v>2009</v>
       </c>
       <c r="D206" t="n">
-        <v>18.38</v>
+        <v>29.15</v>
       </c>
     </row>
     <row r="207">
@@ -4190,7 +4190,7 @@
         <v>2010</v>
       </c>
       <c r="D207" t="n">
-        <v>18.14</v>
+        <v>28.76</v>
       </c>
     </row>
     <row r="208">
@@ -4204,7 +4204,7 @@
         <v>2011</v>
       </c>
       <c r="D208" t="n">
-        <v>18.01</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="209">
@@ -4218,7 +4218,7 @@
         <v>2012</v>
       </c>
       <c r="D209" t="n">
-        <v>17.98</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="210">
@@ -4232,7 +4232,7 @@
         <v>2005</v>
       </c>
       <c r="D210" t="n">
-        <v>30.78</v>
+        <v>41.53</v>
       </c>
     </row>
     <row r="211">
@@ -4246,7 +4246,7 @@
         <v>2006</v>
       </c>
       <c r="D211" t="n">
-        <v>30.36</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="212">
@@ -4260,7 +4260,7 @@
         <v>2007</v>
       </c>
       <c r="D212" t="n">
-        <v>29.95</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="213">
@@ -4274,7 +4274,7 @@
         <v>2008</v>
       </c>
       <c r="D213" t="n">
-        <v>29.54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214">
@@ -4288,7 +4288,7 @@
         <v>2009</v>
       </c>
       <c r="D214" t="n">
-        <v>29.15</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="215">
@@ -4302,7 +4302,7 @@
         <v>2010</v>
       </c>
       <c r="D215" t="n">
-        <v>28.76</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="216">
@@ -4316,7 +4316,7 @@
         <v>2011</v>
       </c>
       <c r="D216" t="n">
-        <v>28.39</v>
+        <v>42.21</v>
       </c>
     </row>
     <row r="217">
@@ -4330,7 +4330,7 @@
         <v>2012</v>
       </c>
       <c r="D217" t="n">
-        <v>28.03</v>
+        <v>42.17</v>
       </c>
     </row>
     <row r="218">
@@ -4344,7 +4344,7 @@
         <v>2005</v>
       </c>
       <c r="D218" t="n">
-        <v>41.53</v>
+        <v>42.21</v>
       </c>
     </row>
     <row r="219">
@@ -4358,7 +4358,7 @@
         <v>2006</v>
       </c>
       <c r="D219" t="n">
-        <v>41.67</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="220">
@@ -4372,7 +4372,7 @@
         <v>2007</v>
       </c>
       <c r="D220" t="n">
-        <v>41.84</v>
+        <v>42.22</v>
       </c>
     </row>
     <row r="221">
@@ -4386,7 +4386,7 @@
         <v>2008</v>
       </c>
       <c r="D221" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="222">
@@ -4400,7 +4400,7 @@
         <v>2009</v>
       </c>
       <c r="D222" t="n">
-        <v>42.13</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="223">
@@ -4414,7 +4414,7 @@
         <v>2010</v>
       </c>
       <c r="D223" t="n">
-        <v>42.2</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="224">
@@ -4428,7 +4428,7 @@
         <v>2011</v>
       </c>
       <c r="D224" t="n">
-        <v>42.21</v>
+        <v>42.29</v>
       </c>
     </row>
     <row r="225">
@@ -4442,7 +4442,7 @@
         <v>2012</v>
       </c>
       <c r="D225" t="n">
-        <v>42.17</v>
+        <v>42.37</v>
       </c>
     </row>
     <row r="226">
@@ -4456,7 +4456,7 @@
         <v>2005</v>
       </c>
       <c r="D226" t="n">
-        <v>42.21</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="227">
@@ -4470,7 +4470,7 @@
         <v>2006</v>
       </c>
       <c r="D227" t="n">
-        <v>42.23</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="228">
@@ -4484,7 +4484,7 @@
         <v>2007</v>
       </c>
       <c r="D228" t="n">
-        <v>42.22</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="229">
@@ -4498,7 +4498,7 @@
         <v>2008</v>
       </c>
       <c r="D229" t="n">
-        <v>42.2</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="230">
@@ -4512,7 +4512,7 @@
         <v>2009</v>
       </c>
       <c r="D230" t="n">
-        <v>42.2</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="231">
@@ -4526,7 +4526,7 @@
         <v>2010</v>
       </c>
       <c r="D231" t="n">
-        <v>42.23</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="232">
@@ -4540,7 +4540,7 @@
         <v>2011</v>
       </c>
       <c r="D232" t="n">
-        <v>42.29</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="233">
@@ -4554,7 +4554,7 @@
         <v>2012</v>
       </c>
       <c r="D233" t="n">
-        <v>42.37</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="234">
@@ -4568,7 +4568,7 @@
         <v>2005</v>
       </c>
       <c r="D234" t="n">
-        <v>27.91</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="235">
@@ -4582,7 +4582,7 @@
         <v>2006</v>
       </c>
       <c r="D235" t="n">
-        <v>27.25</v>
+        <v>42.28</v>
       </c>
     </row>
     <row r="236">
@@ -4596,7 +4596,7 @@
         <v>2007</v>
       </c>
       <c r="D236" t="n">
-        <v>26.62</v>
+        <v>42.21</v>
       </c>
     </row>
     <row r="237">
@@ -4610,7 +4610,7 @@
         <v>2008</v>
       </c>
       <c r="D237" t="n">
-        <v>26.02</v>
+        <v>42.09</v>
       </c>
     </row>
     <row r="238">
@@ -4624,7 +4624,7 @@
         <v>2009</v>
       </c>
       <c r="D238" t="n">
-        <v>25.45</v>
+        <v>41.96</v>
       </c>
     </row>
     <row r="239">
@@ -4638,7 +4638,7 @@
         <v>2010</v>
       </c>
       <c r="D239" t="n">
-        <v>24.92</v>
+        <v>41.81</v>
       </c>
     </row>
     <row r="240">
@@ -4652,7 +4652,7 @@
         <v>2011</v>
       </c>
       <c r="D240" t="n">
-        <v>24.41</v>
+        <v>41.65</v>
       </c>
     </row>
     <row r="241">
@@ -4666,7 +4666,7 @@
         <v>2012</v>
       </c>
       <c r="D241" t="n">
-        <v>23.94</v>
+        <v>41.48</v>
       </c>
     </row>
     <row r="242">

--- a/user-data/population-0-14/population-0-14.xlsx
+++ b/user-data/population-0-14/population-0-14.xlsx
@@ -858,7 +858,7 @@
     <t>Units of measure: percent</t>
   </si>
   <si>
-    <t>Source: NA</t>
+    <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
     <t/>
